--- a/microblog/test.xlsx
+++ b/microblog/test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="372">
   <si>
     <t>Name</t>
   </si>
@@ -207,158 +207,998 @@
     <t>10.109.22.53</t>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>math</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>history</t>
+    <t>Responsible Manager</t>
+  </si>
+  <si>
+    <t>SPA BMC IP</t>
+  </si>
+  <si>
+    <t>SPB BMC IP</t>
+  </si>
+  <si>
+    <t>Bound Disks</t>
+  </si>
+  <si>
+    <t>Total Disks</t>
+  </si>
+  <si>
+    <t>Zeng, Ke</t>
+  </si>
+  <si>
+    <t>10.109.20.159</t>
+  </si>
+  <si>
+    <t>10.109.20.160</t>
+  </si>
+  <si>
+    <t>10.109.20.169</t>
+  </si>
+  <si>
+    <t>10.109.20.170</t>
+  </si>
+  <si>
+    <t>10.109.20.174</t>
+  </si>
+  <si>
+    <t>10.109.20.175</t>
+  </si>
+  <si>
+    <t>10.109.20.189</t>
+  </si>
+  <si>
+    <t>10.109.20.190</t>
+  </si>
+  <si>
+    <t>10.109.22.59</t>
+  </si>
+  <si>
+    <t>10.109.22.60</t>
+  </si>
+  <si>
+    <t>10.109.22.54</t>
+  </si>
+  <si>
+    <t>10.109.22.55</t>
   </si>
   <si>
     <t>OB-D1151</t>
   </si>
   <si>
-    <t>OB-D1152</t>
-  </si>
-  <si>
-    <t>OB-D1153</t>
-  </si>
-  <si>
-    <t>OB-D1154</t>
-  </si>
-  <si>
-    <t>OB-D1155</t>
-  </si>
-  <si>
-    <t>OB-D1156</t>
-  </si>
-  <si>
-    <t>OB-D1157</t>
-  </si>
-  <si>
-    <t>OB-D1158</t>
-  </si>
-  <si>
-    <t>OB-D1159</t>
-  </si>
-  <si>
-    <t>OB-D1160</t>
-  </si>
-  <si>
-    <t>OB-D1161</t>
-  </si>
-  <si>
-    <t>OB-D1162</t>
-  </si>
-  <si>
-    <t>OB-D1163</t>
-  </si>
-  <si>
-    <t>FNM00153600092</t>
-  </si>
-  <si>
-    <t>FNM00153600093</t>
-  </si>
-  <si>
-    <t>FNM00153600094</t>
-  </si>
-  <si>
-    <t>FNM00153600095</t>
-  </si>
-  <si>
-    <t>FNM00153600096</t>
-  </si>
-  <si>
-    <t>FNM00153600097</t>
-  </si>
-  <si>
-    <t>FNM00153600098</t>
-  </si>
-  <si>
-    <t>FNM00153600099</t>
-  </si>
-  <si>
-    <t>FNM00153600100</t>
-  </si>
-  <si>
-    <t>FNM00153600101</t>
-  </si>
-  <si>
-    <t>FNM00153600102</t>
-  </si>
-  <si>
-    <t>FNM00153600103</t>
-  </si>
-  <si>
-    <t>FNM00153600104</t>
-  </si>
-  <si>
-    <t>10.109.22.54</t>
-  </si>
-  <si>
-    <t>10.109.22.55</t>
-  </si>
-  <si>
-    <t>10.109.22.59</t>
-  </si>
-  <si>
-    <t>10.109.22.60</t>
-  </si>
-  <si>
-    <t>10.109.22.61</t>
-  </si>
-  <si>
-    <t>10.109.22.62</t>
-  </si>
-  <si>
-    <t>10.109.22.63</t>
-  </si>
-  <si>
-    <t>10.109.22.64</t>
-  </si>
-  <si>
-    <t>10.109.22.65</t>
-  </si>
-  <si>
-    <t>10.109.22.66</t>
+    <t>FNM00153600082</t>
+  </si>
+  <si>
+    <t>10.109.22.46</t>
+  </si>
+  <si>
+    <t>10.109.22.47</t>
+  </si>
+  <si>
+    <t>10.109.22.48</t>
+  </si>
+  <si>
+    <t>Yuan, Jia</t>
+  </si>
+  <si>
+    <t>10.109.22.49</t>
+  </si>
+  <si>
+    <t>10.109.22.50</t>
+  </si>
+  <si>
+    <t>OB-D1166</t>
+  </si>
+  <si>
+    <t>FNM00153700468</t>
+  </si>
+  <si>
+    <t>10.109.22.146</t>
+  </si>
+  <si>
+    <t>10.109.22.147</t>
+  </si>
+  <si>
+    <t>10.109.22.148</t>
+  </si>
+  <si>
+    <t>Lai, Zhencai</t>
+  </si>
+  <si>
+    <t>10.109.22.149</t>
+  </si>
+  <si>
+    <t>10.109.22.150</t>
+  </si>
+  <si>
+    <t>OB-D1167</t>
+  </si>
+  <si>
+    <t>FNM00153700212</t>
+  </si>
+  <si>
+    <t>10.109.22.141</t>
+  </si>
+  <si>
+    <t>10.109.22.142</t>
+  </si>
+  <si>
+    <t>10.109.22.143</t>
+  </si>
+  <si>
+    <t>Zhao, Jingrong</t>
+  </si>
+  <si>
+    <t>10.109.22.144</t>
+  </si>
+  <si>
+    <t>10.109.22.145</t>
+  </si>
+  <si>
+    <t>OB-D1168</t>
+  </si>
+  <si>
+    <t>FNM00153700214</t>
+  </si>
+  <si>
+    <t>10.109.22.151</t>
+  </si>
+  <si>
+    <t>10.109.22.152</t>
+  </si>
+  <si>
+    <t>10.109.22.153</t>
+  </si>
+  <si>
+    <t>10.109.22.154</t>
+  </si>
+  <si>
+    <t>10.109.22.155</t>
+  </si>
+  <si>
+    <t>OB-D1172</t>
+  </si>
+  <si>
+    <t>FNM00153800463</t>
+  </si>
+  <si>
+    <t>10.109.22.231</t>
+  </si>
+  <si>
+    <t>10.109.22.232</t>
+  </si>
+  <si>
+    <t>10.109.22.233</t>
+  </si>
+  <si>
+    <t>10.109.22.234</t>
+  </si>
+  <si>
+    <t>10.109.22.235</t>
+  </si>
+  <si>
+    <t>OB-D1215</t>
+  </si>
+  <si>
+    <t>FNM00153801864</t>
+  </si>
+  <si>
+    <t>10.109.22.156</t>
+  </si>
+  <si>
+    <t>10.109.22.157</t>
+  </si>
+  <si>
+    <t>10.109.22.158</t>
+  </si>
+  <si>
+    <t>Liu, Bonn</t>
+  </si>
+  <si>
+    <t>10.109.22.159</t>
+  </si>
+  <si>
+    <t>10.109.22.160</t>
+  </si>
+  <si>
+    <t>OB-D1302</t>
+  </si>
+  <si>
+    <t>FNM00153900594</t>
+  </si>
+  <si>
+    <t>10.109.23.221</t>
+  </si>
+  <si>
+    <t>10.109.23.222</t>
+  </si>
+  <si>
+    <t>10.109.23.223</t>
+  </si>
+  <si>
+    <t>10.109.23.224</t>
+  </si>
+  <si>
+    <t>10.109.23.225</t>
+  </si>
+  <si>
+    <t>OB-D1312</t>
+  </si>
+  <si>
+    <t>FNM00154100435</t>
+  </si>
+  <si>
+    <t>10.109.10.184</t>
+  </si>
+  <si>
+    <t>10.109.10.185</t>
+  </si>
+  <si>
+    <t>10.109.10.186</t>
+  </si>
+  <si>
+    <t>10.109.10.187</t>
+  </si>
+  <si>
+    <t>10.109.10.188</t>
+  </si>
+  <si>
+    <t>OB-D1313</t>
+  </si>
+  <si>
+    <t>FNM00153900805</t>
+  </si>
+  <si>
+    <t>10.109.10.240</t>
+  </si>
+  <si>
+    <t>10.109.10.241</t>
+  </si>
+  <si>
+    <t>10.109.10.242</t>
+  </si>
+  <si>
+    <t>10.109.10.243</t>
+  </si>
+  <si>
+    <t>10.109.10.244</t>
+  </si>
+  <si>
+    <t>OB-D1314</t>
+  </si>
+  <si>
+    <t>FNM00153900598</t>
+  </si>
+  <si>
+    <t>10.109.10.245</t>
+  </si>
+  <si>
+    <t>10.109.10.246</t>
+  </si>
+  <si>
+    <t>10.109.10.247</t>
+  </si>
+  <si>
+    <t>10.109.10.248</t>
+  </si>
+  <si>
+    <t>10.109.10.249</t>
+  </si>
+  <si>
+    <t>VP-D1038</t>
+  </si>
+  <si>
+    <t>MJ01MU2Y</t>
+  </si>
+  <si>
+    <t>10.109.109.100</t>
+  </si>
+  <si>
+    <t>10.109.109.101</t>
+  </si>
+  <si>
+    <t>10.109.109.102</t>
+  </si>
+  <si>
+    <t>Grosner, George</t>
+  </si>
+  <si>
+    <t>Priya, Vishnu</t>
+  </si>
+  <si>
+    <t>VP-D1056</t>
+  </si>
+  <si>
+    <t>VIRT15405MWPMU</t>
+  </si>
+  <si>
+    <t>10.109.110.10</t>
+  </si>
+  <si>
+    <t>10.109.110.11</t>
+  </si>
+  <si>
+    <t>10.109.110.12</t>
+  </si>
+  <si>
+    <t>VP-D1057</t>
+  </si>
+  <si>
+    <t>MJ01NKY6</t>
+  </si>
+  <si>
+    <t>10.109.110.19</t>
+  </si>
+  <si>
+    <t>10.109.110.20</t>
+  </si>
+  <si>
+    <t>10.109.110.21</t>
+  </si>
+  <si>
+    <t>VP-D1063</t>
+  </si>
+  <si>
+    <t>MJ01NKXY</t>
+  </si>
+  <si>
+    <t>10.109.110.73</t>
+  </si>
+  <si>
+    <t>10.109.110.74</t>
+  </si>
+  <si>
+    <t>10.109.110.75</t>
+  </si>
+  <si>
+    <t>VX-D1115</t>
+  </si>
+  <si>
+    <t>APM00120900763</t>
+  </si>
+  <si>
+    <t>10.109.225.231</t>
+  </si>
+  <si>
+    <t>10.109.225.232</t>
+  </si>
+  <si>
+    <t>Davalos, Raul</t>
+  </si>
+  <si>
+    <t>VX-D1212</t>
+  </si>
+  <si>
+    <t>APM00122204817</t>
+  </si>
+  <si>
+    <t>10.111.81.163</t>
+  </si>
+  <si>
+    <t>10.111.81.164</t>
+  </si>
+  <si>
+    <t>10.111.81.165</t>
+  </si>
+  <si>
+    <t>VX-D1213</t>
+  </si>
+  <si>
+    <t>APM00122301040</t>
+  </si>
+  <si>
+    <t>10.111.81.159</t>
+  </si>
+  <si>
+    <t>10.111.81.161</t>
+  </si>
+  <si>
+    <t>10.111.81.162</t>
+  </si>
+  <si>
+    <t>VX-D1207</t>
+  </si>
+  <si>
+    <t>10.111.81.83</t>
+  </si>
+  <si>
+    <t>10.111.81.84</t>
+  </si>
+  <si>
+    <t>10.111.81.85</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Management IP</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Machine Type</t>
+  </si>
+  <si>
+    <t>19TDB71</t>
+  </si>
+  <si>
+    <t>10.109.243.123</t>
+  </si>
+  <si>
+    <t>Dell Computer Corporation</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>ant-linux-yuanj6</t>
+  </si>
+  <si>
+    <t>10.244.180.26</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>auto-dev-daid2</t>
+  </si>
+  <si>
+    <t>10.108.16.73</t>
+  </si>
+  <si>
+    <t>VMware, Inc.</t>
+  </si>
+  <si>
+    <t>VMware Virtual Platform</t>
+  </si>
+  <si>
+    <t>BNCF4M1</t>
+  </si>
+  <si>
+    <t>10.244.13.148</t>
+  </si>
+  <si>
+    <t>R510</t>
+  </si>
+  <si>
+    <t>D6RDSL1</t>
+  </si>
+  <si>
+    <t>10.109.118.19</t>
+  </si>
+  <si>
+    <t>PowerEdge</t>
+  </si>
+  <si>
+    <t>R710</t>
+  </si>
+  <si>
+    <t>DMYXVH1</t>
+  </si>
+  <si>
+    <t>10.109.118.20</t>
+  </si>
+  <si>
+    <t>DMZRVH1</t>
+  </si>
+  <si>
+    <t>10.109.118.24</t>
+  </si>
+  <si>
+    <t>DMZWH1</t>
+  </si>
+  <si>
+    <t>10.109.118.23</t>
+  </si>
+  <si>
+    <t>dur180160</t>
+  </si>
+  <si>
+    <t>10.109.180.160</t>
+  </si>
+  <si>
+    <t>DVTFCHOST42</t>
+  </si>
+  <si>
+    <t>10.109.243.73</t>
+  </si>
+  <si>
+    <t>dvtfchost54</t>
+  </si>
+  <si>
+    <t>10.109.243.90</t>
+  </si>
+  <si>
+    <t>Dell Inc.</t>
+  </si>
+  <si>
+    <t>DVTFCHOST92</t>
+  </si>
+  <si>
+    <t>10.109.243.124</t>
+  </si>
+  <si>
+    <t>ESD-HOST198134</t>
+  </si>
+  <si>
+    <t>10.245.198.134</t>
+  </si>
+  <si>
+    <t>T5500</t>
+  </si>
+  <si>
+    <t>ESD-Host198149</t>
+  </si>
+  <si>
+    <t>10.245.198.149</t>
+  </si>
+  <si>
+    <t>guiauto-daid2</t>
+  </si>
+  <si>
+    <t>10.108.16.70</t>
+  </si>
+  <si>
+    <t>hopnfw013140</t>
+  </si>
+  <si>
+    <t>10.244.13.140</t>
+  </si>
+  <si>
+    <t>khawk-dev-yuanj6</t>
+  </si>
+  <si>
+    <t>10.244.4.79</t>
+  </si>
+  <si>
+    <t>ncvm6029120</t>
+  </si>
+  <si>
+    <t>10.6.29.120</t>
+  </si>
+  <si>
+    <t>ncvm9014211</t>
+  </si>
+  <si>
+    <t>10.109.14.211</t>
+  </si>
+  <si>
+    <t>ncvm9081036</t>
+  </si>
+  <si>
+    <t>10.109.81.36</t>
+  </si>
+  <si>
+    <t>ncvm9081037</t>
+  </si>
+  <si>
+    <t>10.109.81.37</t>
+  </si>
+  <si>
+    <t>ncvm9082022</t>
+  </si>
+  <si>
+    <t>10.109.82.22</t>
+  </si>
+  <si>
+    <t>ncvm9082045</t>
+  </si>
+  <si>
+    <t>10.109.82.45</t>
+  </si>
+  <si>
+    <t>ncvm9082238</t>
+  </si>
+  <si>
+    <t>10.109.82.238</t>
+  </si>
+  <si>
+    <t>i86pc</t>
+  </si>
+  <si>
+    <t>ncvm9082239</t>
+  </si>
+  <si>
+    <t>10.109.82.239</t>
+  </si>
+  <si>
+    <t>ncvm9082240</t>
+  </si>
+  <si>
+    <t>10.109.82.240</t>
+  </si>
+  <si>
+    <t>Shao, Stephen</t>
+  </si>
+  <si>
+    <t>ncvm9082241</t>
+  </si>
+  <si>
+    <t>10.109.82.241</t>
+  </si>
+  <si>
+    <t>ncvm9082242</t>
+  </si>
+  <si>
+    <t>10.109.82.242</t>
+  </si>
+  <si>
+    <t>ncvm9082243</t>
+  </si>
+  <si>
+    <t>10.109.82.243</t>
+  </si>
+  <si>
+    <t>ncvm9084160</t>
+  </si>
+  <si>
+    <t>10.109.84.160</t>
+  </si>
+  <si>
+    <t>ncvm9084161</t>
+  </si>
+  <si>
+    <t>10.109.84.161</t>
+  </si>
+  <si>
+    <t>ncvm9085118</t>
+  </si>
+  <si>
+    <t>10.109.85.118</t>
+  </si>
+  <si>
+    <t>rock-yuanj6</t>
+  </si>
+  <si>
+    <t>10.244.21.198</t>
+  </si>
+  <si>
+    <t>vm-d00031</t>
+  </si>
+  <si>
+    <t>10.109.140.41</t>
+  </si>
+  <si>
+    <t>VMware7,1</t>
+  </si>
+  <si>
+    <t>vm-d00090</t>
+  </si>
+  <si>
+    <t>10.109.140.100</t>
+  </si>
+  <si>
+    <t>vm-d00091</t>
+  </si>
+  <si>
+    <t>10.109.140.101</t>
+  </si>
+  <si>
+    <t>vm-d00097</t>
+  </si>
+  <si>
+    <t>10.109.140.107</t>
+  </si>
+  <si>
+    <t>vm-d00098</t>
+  </si>
+  <si>
+    <t>10.109.140.108</t>
+  </si>
+  <si>
+    <t>vm-d00100</t>
+  </si>
+  <si>
+    <t>10.109.140.110</t>
+  </si>
+  <si>
+    <t>vm-d00101</t>
+  </si>
+  <si>
+    <t>10.109.140.111</t>
+  </si>
+  <si>
+    <t>vm-d00102</t>
+  </si>
+  <si>
+    <t>10.109.140.112</t>
+  </si>
+  <si>
+    <t>vm-d00103</t>
+  </si>
+  <si>
+    <t>10.109.140.113</t>
+  </si>
+  <si>
+    <t>vm-d00125</t>
+  </si>
+  <si>
+    <t>10.109.140.135</t>
+  </si>
+  <si>
+    <t>vm-d00207</t>
+  </si>
+  <si>
+    <t>10.109.140.217</t>
+  </si>
+  <si>
+    <t>vm-d00237</t>
+  </si>
+  <si>
+    <t>10.109.140.247</t>
+  </si>
+  <si>
+    <t>vm-d00238</t>
+  </si>
+  <si>
+    <t>10.109.140.248</t>
+  </si>
+  <si>
+    <t>vm-d00239</t>
+  </si>
+  <si>
+    <t>10.109.140.249</t>
+  </si>
+  <si>
+    <t>vm-d00377</t>
+  </si>
+  <si>
+    <t>10.109.141.174</t>
+  </si>
+  <si>
+    <t>vm-d00486</t>
+  </si>
+  <si>
+    <t>10.109.142.22</t>
+  </si>
+  <si>
+    <t>vm-d00493</t>
+  </si>
+  <si>
+    <t>10.109.142.29</t>
+  </si>
+  <si>
+    <t>vm-d00507</t>
+  </si>
+  <si>
+    <t>10.109.142.43</t>
+  </si>
+  <si>
+    <t>vm-d01035</t>
+  </si>
+  <si>
+    <t>10.103.56.37</t>
+  </si>
+  <si>
+    <t>vm-d01036</t>
+  </si>
+  <si>
+    <t>10.103.56.38</t>
+  </si>
+  <si>
+    <t>vm-d01123</t>
+  </si>
+  <si>
+    <t>VM-H10014</t>
+  </si>
+  <si>
+    <t>10.245.93.221</t>
+  </si>
+  <si>
+    <t>VM-H10034</t>
+  </si>
+  <si>
+    <t>10.245.93.240</t>
+  </si>
+  <si>
+    <t>VM-H10084</t>
+  </si>
+  <si>
+    <t>10.245.94.38</t>
+  </si>
+  <si>
+    <t>VM-H10325</t>
+  </si>
+  <si>
+    <t>10.245.95.30</t>
+  </si>
+  <si>
+    <t>VM-H10352</t>
+  </si>
+  <si>
+    <t>10.244.92.205</t>
+  </si>
+  <si>
+    <t>VM-H10427</t>
+  </si>
+  <si>
+    <t>10.245.93.139</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">96876d1   </t>
+  </si>
+  <si>
+    <t>10.109.244.63</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clariion! </t>
+  </si>
+  <si>
+    <t>Durham</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.109.140.137</t>
+  </si>
+  <si>
+    <t>administrator@vsphere.local/Password123!</t>
+  </si>
+  <si>
+    <t>ncesx9083229</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.109.83.229</t>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password123!</t>
+  </si>
+  <si>
+    <t>Durham</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ncesx9083233</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.109.83.233</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password123!</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ncesx9083231</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.109.83.231</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.109.83.155</t>
+  </si>
+  <si>
+    <t>administrator@vsphere.local / Password123!</t>
+  </si>
+  <si>
+    <t>nc9064102</t>
+  </si>
+  <si>
+    <t>10.109.104.13</t>
+  </si>
+  <si>
+    <t>ncesx9083238</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.109.83.238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESD-HOST198134 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.245.198.134</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc9083232</t>
+  </si>
+  <si>
+    <t>10.109.83.232</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -366,15 +1206,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -382,15 +1280,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,7 +1327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,26 +1360,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,23 +1395,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,19 +1571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,8 +1601,23 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -767,8 +1639,17 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -790,8 +1671,17 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -813,8 +1703,17 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -836,8 +1735,17 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -859,8 +1767,23 @@
       <c r="G6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -882,8 +1805,23 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -905,8 +1843,23 @@
       <c r="G8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -928,8 +1881,23 @@
       <c r="G9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -951,8 +1919,23 @@
       <c r="G10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -974,376 +1957,2292 @@
       <c r="G11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12">
+        <v>82</v>
+      </c>
+      <c r="L12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17">
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21">
+        <v>74</v>
+      </c>
+      <c r="L21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>11</v>
+      </c>
+      <c r="L26" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
+        <v>18</v>
+      </c>
+      <c r="L27" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>26</v>
+      </c>
+      <c r="L28" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
+      <c r="H29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>26</v>
+      </c>
+      <c r="L29" s="1">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection sqref="A1:G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1873</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2">
+        <v>1850</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15098</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>23444</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1664</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1671</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1674</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1675</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1032</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>1950</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1828</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11">
+        <v>1750</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12">
+        <v>1950</v>
+      </c>
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6409</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13">
+        <v>1850</v>
+      </c>
+      <c r="F13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5025</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6452</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>23337</v>
+      </c>
+      <c r="B16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4712</v>
+      </c>
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17">
+        <v>6950</v>
+      </c>
+      <c r="F17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8476</v>
+      </c>
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1392</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3080</v>
+      </c>
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2232</v>
+      </c>
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2572</v>
+      </c>
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5402</v>
+      </c>
+      <c r="B26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5403</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5404</v>
+      </c>
+      <c r="B28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5405</v>
+      </c>
+      <c r="B29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5406</v>
+      </c>
+      <c r="B30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5399</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5400</v>
+      </c>
+      <c r="B32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6459</v>
+      </c>
+      <c r="B33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>17588</v>
+      </c>
+      <c r="B34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>8153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8351</v>
+      </c>
+      <c r="B36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>8352</v>
+      </c>
+      <c r="B37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8365</v>
+      </c>
+      <c r="B38" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>8375</v>
+      </c>
+      <c r="B39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>8376</v>
+      </c>
+      <c r="B40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>8378</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8379</v>
+      </c>
+      <c r="B42" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>8380</v>
+      </c>
+      <c r="B43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>8440</v>
+      </c>
+      <c r="B44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>14035</v>
+      </c>
+      <c r="B45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>14217</v>
+      </c>
+      <c r="B46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>14216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>14215</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>20351</v>
+      </c>
+      <c r="B49" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>27458</v>
+      </c>
+      <c r="B50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>27567</v>
+      </c>
+      <c r="B51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" t="s">
+        <v>281</v>
+      </c>
+      <c r="F51" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>27849</v>
+      </c>
+      <c r="B52" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>8373</v>
+      </c>
+      <c r="B53" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>8374</v>
+      </c>
+      <c r="B54" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" t="s">
+        <v>319</v>
+      </c>
+      <c r="D54" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>14228</v>
+      </c>
+      <c r="B55" t="s">
+        <v>320</v>
+      </c>
+      <c r="E55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>9096</v>
+      </c>
+      <c r="B56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C56" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>9104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" t="s">
+        <v>324</v>
+      </c>
+      <c r="D57" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6376</v>
+      </c>
+      <c r="B58" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>6319</v>
+      </c>
+      <c r="B59" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" t="s">
+        <v>207</v>
+      </c>
+      <c r="G59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>6725</v>
+      </c>
+      <c r="B60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C60" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>13743</v>
+      </c>
+      <c r="B61" t="s">
+        <v>331</v>
+      </c>
+      <c r="C61" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" t="s">
+        <v>207</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>